--- a/role.xlsx
+++ b/role.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>张永</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关于BOM管理系统DMS权限设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.  所有人只读，导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谷帅标</t>
   </si>
   <si>
@@ -149,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘佃涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李金刚</t>
   </si>
   <si>
@@ -179,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骆素爽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魏文鹏</t>
   </si>
   <si>
@@ -246,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石静</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵彬禹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +300,63 @@
   </si>
   <si>
     <t>lukeyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户1 ： 部件负责人</t>
+  </si>
+  <si>
+    <t>用户2： 项目负责人</t>
+  </si>
+  <si>
+    <t>用户3： 主任设计师</t>
+  </si>
+  <si>
+    <t>2编辑</t>
+  </si>
+  <si>
+    <t>2发布</t>
+  </si>
+  <si>
+    <t>2 修改版本，3删除</t>
+  </si>
+  <si>
+    <t>2机器添加库中部套. 3导入新部套和新版本的部套</t>
+  </si>
+  <si>
+    <t>1/2/3导出单个部套，可编辑</t>
+  </si>
+  <si>
+    <t>不可以编辑</t>
+  </si>
+  <si>
+    <t>1.     普通用户无法编辑机器信息，设计师可以编辑机器信息；</t>
+  </si>
+  <si>
+    <t>2.     普通用户无法发布部套，设计师可以发布部套；</t>
+  </si>
+  <si>
+    <t>3.     普通用户无法删除部套，无法修改部套版本；设计师可以删除部套，可以修改部套版本；</t>
+  </si>
+  <si>
+    <t>4.     普通用户无法为机器添加库中部套，无法导入新部套和新版本的部套；设计师可以为机器添加库中部套，导入新部套和新版本的部套。</t>
+  </si>
+  <si>
+    <t>5.     所有用户都可以导出单个部套，普通用户导出的单个部套文件无法编辑，设计师导出的单个部套文件可以编辑。</t>
+  </si>
+  <si>
+    <t>6.     所有用户都可以导出整机BOM/设计BOM/发布BOM三种BOM文件，此三种文件都不可以编辑。</t>
+  </si>
+  <si>
+    <t>用户1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,9 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -473,6 +491,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,7 +788,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,496 +807,541 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>2</v>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>8</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>9</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>10</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>11</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="B28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>12</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>13</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>14</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>15</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>2</v>
+      <c r="B32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>64</v>
+      <c r="B33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>64</v>
+      <c r="B34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>2</v>
+      <c r="B35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
